--- a/doc/Bericht/04_Technischer Bericht/07_HSR Videowall Evaluation/Anzahl Poster.xlsx
+++ b/doc/Bericht/04_Technischer Bericht/07_HSR Videowall Evaluation/Anzahl Poster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="FS 2008" sheetId="12" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="20">
   <si>
     <t>FS 2012</t>
   </si>
@@ -56,6 +56,33 @@
   </si>
   <si>
     <t>Maschinentechnik | Innovation</t>
+  </si>
+  <si>
+    <t>Gesamt</t>
+  </si>
+  <si>
+    <t>HS 2011/2012</t>
+  </si>
+  <si>
+    <t>FS 2011</t>
+  </si>
+  <si>
+    <t>HS 2010/2011</t>
+  </si>
+  <si>
+    <t>FS 2010</t>
+  </si>
+  <si>
+    <t>HS 2009/2010</t>
+  </si>
+  <si>
+    <t>FS 2009</t>
+  </si>
+  <si>
+    <t>HS 2008/2009</t>
+  </si>
+  <si>
+    <t>FS 2008</t>
   </si>
 </sst>
 </file>
@@ -96,7 +123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1402,16 +1429,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1437,16 +1464,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1472,16 +1499,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1507,16 +1534,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1542,16 +1569,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1577,16 +1604,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1612,16 +1639,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1647,16 +1674,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1123950</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1682,16 +1709,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1717,16 +1744,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1749,9 +1776,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1789,7 +1816,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1861,7 +1888,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2037,11 +2064,1120 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1">
+        <f>B4</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1">
+        <f>ROUND((B5/2), 0)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1">
+        <f>ROUND((B6/2), 0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1">
+        <f>B7</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>45</v>
+      </c>
+      <c r="C8" s="1">
+        <f>B8</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1">
+        <f>B9</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f>SUM(B4:B9)</f>
+        <v>192</v>
+      </c>
+      <c r="C11" s="1">
+        <f>SUM(C4:C9)</f>
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <f>SUM('FS 2008'!B4,'HS 2008-2009'!B4,'FS 2009'!B4,'HS 2009-2010'!B4,'FS 2010'!B4,'HS 2010-2011'!B4,'FS 2011'!B4,'HS 2011-2012'!B4,'FS 2012'!B4)</f>
+        <v>130</v>
+      </c>
+      <c r="C4">
+        <f>SUM('FS 2008'!C4,'HS 2008-2009'!C4,'FS 2009'!C4,'HS 2009-2010'!C4,'FS 2010'!C4,'HS 2010-2011'!C4,'FS 2011'!C4,'HS 2011-2012'!C4,'FS 2012'!C4)</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <f>SUM('FS 2008'!B5,'HS 2008-2009'!B5,'FS 2009'!B5,'HS 2009-2010'!B5,'FS 2010'!B5,'HS 2010-2011'!B5,'FS 2011'!B5,'HS 2011-2012'!B5,'FS 2012'!B5)</f>
+        <v>188</v>
+      </c>
+      <c r="C5">
+        <f>SUM('FS 2008'!C5,'HS 2008-2009'!C5,'FS 2009'!C5,'HS 2009-2010'!C5,'FS 2010'!C5,'HS 2010-2011'!C5,'FS 2011'!C5,'HS 2011-2012'!C5,'FS 2012'!C5)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <f>SUM('FS 2008'!B6,'HS 2008-2009'!B6,'FS 2009'!B6,'HS 2009-2010'!B6,'FS 2010'!B6,'HS 2010-2011'!B6,'FS 2011'!B6,'HS 2011-2012'!B6,'FS 2012'!B6)</f>
+        <v>271</v>
+      </c>
+      <c r="C6">
+        <f>SUM('FS 2008'!C6,'HS 2008-2009'!C6,'FS 2009'!C6,'HS 2009-2010'!C6,'FS 2010'!C6,'HS 2010-2011'!C6,'FS 2011'!C6,'HS 2011-2012'!C6,'FS 2012'!C6)</f>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <f>SUM('FS 2008'!B7,'HS 2008-2009'!B7,'FS 2009'!B7,'HS 2009-2010'!B7,'FS 2010'!B7,'HS 2010-2011'!B7,'FS 2011'!B7,'HS 2011-2012'!B7,'FS 2012'!B7)</f>
+        <v>178</v>
+      </c>
+      <c r="C7">
+        <f>SUM('FS 2008'!C7,'HS 2008-2009'!C7,'FS 2009'!C7,'HS 2009-2010'!C7,'FS 2010'!C7,'HS 2010-2011'!C7,'FS 2011'!C7,'HS 2011-2012'!C7,'FS 2012'!C7)</f>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <f>SUM('FS 2008'!B8,'HS 2008-2009'!B8,'FS 2009'!B8,'HS 2009-2010'!B8,'FS 2010'!B8,'HS 2010-2011'!B8,'FS 2011'!B8,'HS 2011-2012'!B8,'FS 2012'!B8)</f>
+        <v>260</v>
+      </c>
+      <c r="C8">
+        <f>SUM('FS 2008'!C8,'HS 2008-2009'!C8,'FS 2009'!C8,'HS 2009-2010'!C8,'FS 2010'!C8,'HS 2010-2011'!C8,'FS 2011'!C8,'HS 2011-2012'!C8,'FS 2012'!C8)</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <f>SUM('FS 2008'!B9,'HS 2008-2009'!B9,'FS 2009'!B9,'HS 2009-2010'!B9,'FS 2010'!B9,'HS 2010-2011'!B9,'FS 2011'!B9,'HS 2011-2012'!B9,'FS 2012'!B9)</f>
+        <v>134</v>
+      </c>
+      <c r="C9">
+        <f>SUM('FS 2008'!C9,'HS 2008-2009'!C9,'FS 2009'!C9,'HS 2009-2010'!C9,'FS 2010'!C9,'HS 2010-2011'!C9,'FS 2011'!C9,'HS 2011-2012'!C9,'FS 2012'!C9)</f>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f>SUM(B4:B9)</f>
+        <v>1161</v>
+      </c>
+      <c r="C11" s="1">
+        <f>SUM(C4:C9)</f>
+        <v>935</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <f>B4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <f>ROUND((B5/2), 0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <f>ROUND((B6/2), 0)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <f>B7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <f>B8</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <f>B9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f>SUM(B4:B9)</f>
+        <v>20</v>
+      </c>
+      <c r="C11" s="1">
+        <f>SUM(C4:C9)</f>
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1">
+        <f>B4</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1">
+        <f>ROUND((B5/2), 0)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>61</v>
+      </c>
+      <c r="C6" s="1">
+        <f>ROUND((B6/2), 0)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1">
+        <f>B7</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>53</v>
+      </c>
+      <c r="C8" s="1">
+        <f>B8</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1">
+        <f>B9</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f>SUM(B4:B9)</f>
+        <v>229</v>
+      </c>
+      <c r="C11" s="1">
+        <f>SUM(C4:C9)</f>
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <f>B4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <f>ROUND((B5/2), 0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <f>ROUND((B6/2), 0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <f>B7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
+        <f>B8</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <f>B9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f>SUM(B4:B9)</f>
+        <v>21</v>
+      </c>
+      <c r="C11" s="1">
+        <f>SUM(C4:C9)</f>
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1">
+        <f>B4</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1">
+        <f>ROUND((B5/2), 0)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>51</v>
+      </c>
+      <c r="C6" s="1">
+        <f>ROUND((B6/2), 0)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1">
+        <f>B7</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1">
+        <f>B8</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1">
+        <f>B9</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f>SUM(B4:B9)</f>
+        <v>225</v>
+      </c>
+      <c r="C11" s="1">
+        <f>SUM(C4:C9)</f>
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <f>B4</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <f>ROUND((B5/2), 0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <f>ROUND((B6/2), 0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <f>B7</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <f>B8</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <f>B9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f>SUM(B4:B9)</f>
+        <v>26</v>
+      </c>
+      <c r="C11" s="1">
+        <f>SUM(C4:C9)</f>
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1">
+        <f>B4</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1">
+        <f>ROUND((B5/2), 0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1">
+        <f>ROUND((B6/2), 0)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1">
+        <f>B7</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>31</v>
+      </c>
+      <c r="C8" s="1">
+        <f>B8</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1">
+        <f>B9</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f>SUM(B4:B9)</f>
+        <v>185</v>
+      </c>
+      <c r="C11" s="1">
+        <f>SUM(C4:C9)</f>
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <f>B4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <f>ROUND((B5/2), 0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <f>ROUND((B6/2), 0)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <f>B7</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1">
+        <f>B8</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <f>B9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <f>SUM(B4:B9)</f>
+        <v>37</v>
+      </c>
+      <c r="C11" s="1">
+        <f>SUM(C4:C9)</f>
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
@@ -2069,1119 +3205,6 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>22</v>
-      </c>
-      <c r="C4" s="1">
-        <f>B4</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>33</v>
-      </c>
-      <c r="C5" s="1">
-        <f>ROUND((B5/2), 0)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>41</v>
-      </c>
-      <c r="C6" s="1">
-        <f>ROUND((B6/2), 0)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>30</v>
-      </c>
-      <c r="C7" s="1">
-        <f>B7</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>45</v>
-      </c>
-      <c r="C8" s="1">
-        <f>B8</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1">
-        <f>B9</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <f>SUM(B4:B9)</f>
-        <v>192</v>
-      </c>
-      <c r="C11" s="1">
-        <f>SUM(C4:C9)</f>
-        <v>156</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <f>SUM('FS 2008'!B4,'HS 2008-2009'!B4,'FS 2009'!B4,'HS 2009-2010'!B4,'FS 2010'!B4,'HS 2010-2011'!B4,'FS 2011'!B4,'HS 2011-2012'!B4,'FS 2012'!B4)</f>
-        <v>130</v>
-      </c>
-      <c r="C4">
-        <f>SUM('FS 2008'!C4,'HS 2008-2009'!C4,'FS 2009'!C4,'HS 2009-2010'!C4,'FS 2010'!C4,'HS 2010-2011'!C4,'FS 2011'!C4,'HS 2011-2012'!C4,'FS 2012'!C4)</f>
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <f>SUM('FS 2008'!B5,'HS 2008-2009'!B5,'FS 2009'!B5,'HS 2009-2010'!B5,'FS 2010'!B5,'HS 2010-2011'!B5,'FS 2011'!B5,'HS 2011-2012'!B5,'FS 2012'!B5)</f>
-        <v>188</v>
-      </c>
-      <c r="C5">
-        <f>SUM('FS 2008'!C5,'HS 2008-2009'!C5,'FS 2009'!C5,'HS 2009-2010'!C5,'FS 2010'!C5,'HS 2010-2011'!C5,'FS 2011'!C5,'HS 2011-2012'!C5,'FS 2012'!C5)</f>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <f>SUM('FS 2008'!B6,'HS 2008-2009'!B6,'FS 2009'!B6,'HS 2009-2010'!B6,'FS 2010'!B6,'HS 2010-2011'!B6,'FS 2011'!B6,'HS 2011-2012'!B6,'FS 2012'!B6)</f>
-        <v>271</v>
-      </c>
-      <c r="C6">
-        <f>SUM('FS 2008'!C6,'HS 2008-2009'!C6,'FS 2009'!C6,'HS 2009-2010'!C6,'FS 2010'!C6,'HS 2010-2011'!C6,'FS 2011'!C6,'HS 2011-2012'!C6,'FS 2012'!C6)</f>
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <f>SUM('FS 2008'!B7,'HS 2008-2009'!B7,'FS 2009'!B7,'HS 2009-2010'!B7,'FS 2010'!B7,'HS 2010-2011'!B7,'FS 2011'!B7,'HS 2011-2012'!B7,'FS 2012'!B7)</f>
-        <v>178</v>
-      </c>
-      <c r="C7">
-        <f>SUM('FS 2008'!C7,'HS 2008-2009'!C7,'FS 2009'!C7,'HS 2009-2010'!C7,'FS 2010'!C7,'HS 2010-2011'!C7,'FS 2011'!C7,'HS 2011-2012'!C7,'FS 2012'!C7)</f>
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <f>SUM('FS 2008'!B8,'HS 2008-2009'!B8,'FS 2009'!B8,'HS 2009-2010'!B8,'FS 2010'!B8,'HS 2010-2011'!B8,'FS 2011'!B8,'HS 2011-2012'!B8,'FS 2012'!B8)</f>
-        <v>260</v>
-      </c>
-      <c r="C8">
-        <f>SUM('FS 2008'!C8,'HS 2008-2009'!C8,'FS 2009'!C8,'HS 2009-2010'!C8,'FS 2010'!C8,'HS 2010-2011'!C8,'FS 2011'!C8,'HS 2011-2012'!C8,'FS 2012'!C8)</f>
-        <v>260</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <f>SUM('FS 2008'!B9,'HS 2008-2009'!B9,'FS 2009'!B9,'HS 2009-2010'!B9,'FS 2010'!B9,'HS 2010-2011'!B9,'FS 2011'!B9,'HS 2011-2012'!B9,'FS 2012'!B9)</f>
-        <v>134</v>
-      </c>
-      <c r="C9">
-        <f>SUM('FS 2008'!C9,'HS 2008-2009'!C9,'FS 2009'!C9,'HS 2009-2010'!C9,'FS 2010'!C9,'HS 2010-2011'!C9,'FS 2011'!C9,'HS 2011-2012'!C9,'FS 2012'!C9)</f>
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <f>SUM(B4:B9)</f>
-        <v>1161</v>
-      </c>
-      <c r="C11" s="1">
-        <f>SUM(C4:C9)</f>
-        <v>935</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <f>B4</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <f>ROUND((B5/2), 0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1">
-        <f>ROUND((B6/2), 0)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <f>B7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <f>B8</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1">
-        <f>B9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <f>SUM(B4:B9)</f>
-        <v>20</v>
-      </c>
-      <c r="C11" s="1">
-        <f>SUM(C4:C9)</f>
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>24</v>
-      </c>
-      <c r="C4" s="1">
-        <f>B4</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1">
-        <f>ROUND((B5/2), 0)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>61</v>
-      </c>
-      <c r="C6" s="1">
-        <f>ROUND((B6/2), 0)</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>33</v>
-      </c>
-      <c r="C7" s="1">
-        <f>B7</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>53</v>
-      </c>
-      <c r="C8" s="1">
-        <f>B8</f>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1">
-        <f>B9</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <f>SUM(B4:B9)</f>
-        <v>229</v>
-      </c>
-      <c r="C11" s="1">
-        <f>SUM(C4:C9)</f>
-        <v>182</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <f>B4</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <f>ROUND((B5/2), 0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1">
-        <f>ROUND((B6/2), 0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <f>B7</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1">
-        <f>B8</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <f>B9</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <f>SUM(B4:B9)</f>
-        <v>21</v>
-      </c>
-      <c r="C11" s="1">
-        <f>SUM(C4:C9)</f>
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1">
-        <f>B4</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>30</v>
-      </c>
-      <c r="C5" s="1">
-        <f>ROUND((B5/2), 0)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>51</v>
-      </c>
-      <c r="C6" s="1">
-        <f>ROUND((B6/2), 0)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>38</v>
-      </c>
-      <c r="C7" s="1">
-        <f>B7</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>50</v>
-      </c>
-      <c r="C8" s="1">
-        <f>B8</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>33</v>
-      </c>
-      <c r="C9" s="1">
-        <f>B9</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <f>SUM(B4:B9)</f>
-        <v>225</v>
-      </c>
-      <c r="C11" s="1">
-        <f>SUM(C4:C9)</f>
-        <v>185</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <f>B4</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1">
-        <f>ROUND((B5/2), 0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <f>ROUND((B6/2), 0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1">
-        <f>B7</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1">
-        <f>B8</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1">
-        <f>B9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <f>SUM(B4:B9)</f>
-        <v>26</v>
-      </c>
-      <c r="C11" s="1">
-        <f>SUM(C4:C9)</f>
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>25</v>
-      </c>
-      <c r="C4" s="1">
-        <f>B4</f>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>32</v>
-      </c>
-      <c r="C5" s="1">
-        <f>ROUND((B5/2), 0)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>43</v>
-      </c>
-      <c r="C6" s="1">
-        <f>ROUND((B6/2), 0)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1">
-        <f>B7</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>31</v>
-      </c>
-      <c r="C8" s="1">
-        <f>B8</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>31</v>
-      </c>
-      <c r="C9" s="1">
-        <f>B9</f>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <f>SUM(B4:B9)</f>
-        <v>185</v>
-      </c>
-      <c r="C11" s="1">
-        <f>SUM(C4:C9)</f>
-        <v>148</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <f>B4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1">
-        <f>ROUND((B5/2), 0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1">
-        <f>ROUND((B6/2), 0)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <f>B7</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1">
-        <f>B8</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <f>B9</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <f>SUM(B4:B9)</f>
-        <v>37</v>
-      </c>
-      <c r="C11" s="1">
-        <f>SUM(C4:C9)</f>
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="32.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
         <v>32</v>
       </c>
       <c r="C4" s="1">
